--- a/ДЗ3-4.xlsx
+++ b/ДЗ3-4.xlsx
@@ -1,27 +1,36 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22130"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Oleg\Desktop\Учеба\ДЗ4\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\811389\Documents\GitHub\Reposit1\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16A1001D-1A57-4FE9-837F-CAE08929C514}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="2370" windowHeight="0" activeTab="2"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Export Summary" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
     <sheet name="Вход и регистрация" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="70">
   <si>
     <t>This document was exported from Numbers.  Each table was converted to an Excel worksheet. All other objects on each Numbers sheet were placed on separate worksheets. Please be aware that formula calculations may differ in Excel.</t>
   </si>
@@ -517,8 +526,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="13">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="14">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -593,6 +602,14 @@
       <b/>
       <sz val="14"/>
       <color indexed="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="9" tint="-0.499984740745262"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="204"/>
@@ -838,7 +855,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -876,7 +893,6 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -890,7 +906,6 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -953,6 +968,13 @@
     <xf numFmtId="0" fontId="5" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -2112,10 +2134,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B3:D12"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10" defaultRowHeight="12.95" customHeight="1"/>
   <cols>
@@ -2124,11 +2148,11 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:4" ht="50.1" customHeight="1">
-      <c r="B3" s="42" t="s">
+      <c r="B3" s="40" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="43"/>
-      <c r="D3" s="43"/>
+      <c r="C3" s="41"/>
+      <c r="D3" s="41"/>
     </row>
     <row r="7" spans="2:4" ht="18.75">
       <c r="B7" s="1" t="s">
@@ -2178,18 +2202,20 @@
     <mergeCell ref="B3:D3"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="D10" location="'Sheet1'!R1C1" display="Sheet1"/>
-    <hyperlink ref="D12" location="'Вход и регистрация'!R1C1" display="Вход и регистрация"/>
+    <hyperlink ref="D10" location="'Sheet1'!R1C1" display="Sheet1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="D12" location="'Вход и регистрация'!R1C1" display="Вход и регистрация" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:IV10"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" customHeight="1"/>
   <cols>
@@ -2282,11 +2308,11 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:IV50"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="F24" sqref="F24"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" customHeight="1"/>
@@ -2297,25 +2323,28 @@
     <col min="4" max="4" width="31.140625" style="9" customWidth="1"/>
     <col min="5" max="5" width="68.140625" style="9" customWidth="1"/>
     <col min="6" max="6" width="57" style="9" customWidth="1"/>
-    <col min="7" max="256" width="8.85546875" style="9" customWidth="1"/>
+    <col min="7" max="7" width="10.28515625" style="9" customWidth="1"/>
+    <col min="8" max="256" width="8.85546875" style="9" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:256" ht="26.25" customHeight="1">
       <c r="A1" s="10"/>
-      <c r="B1" s="46" t="s">
+      <c r="B1" s="44" t="s">
         <v>9</v>
       </c>
-      <c r="C1" s="44" t="s">
+      <c r="C1" s="42" t="s">
         <v>10</v>
       </c>
-      <c r="D1" s="48" t="s">
+      <c r="D1" s="46" t="s">
         <v>11</v>
       </c>
-      <c r="E1" s="46" t="s">
+      <c r="E1" s="44" t="s">
         <v>12</v>
       </c>
-      <c r="F1" s="47"/>
-      <c r="G1" s="12"/>
+      <c r="F1" s="45"/>
+      <c r="G1" s="48">
+        <v>43780</v>
+      </c>
       <c r="H1" s="6"/>
       <c r="I1" s="6"/>
       <c r="J1" s="6"/>
@@ -2338,9 +2367,9 @@
     </row>
     <row r="2" spans="1:256" ht="15" customHeight="1">
       <c r="A2" s="10"/>
-      <c r="B2" s="47"/>
-      <c r="C2" s="45"/>
-      <c r="D2" s="49"/>
+      <c r="B2" s="45"/>
+      <c r="C2" s="43"/>
+      <c r="D2" s="47"/>
       <c r="E2" s="11" t="s">
         <v>13</v>
       </c>
@@ -2385,7 +2414,9 @@
       <c r="F3" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="G3" s="12"/>
+      <c r="G3" s="49" t="s">
+        <v>6</v>
+      </c>
       <c r="H3" s="6"/>
       <c r="I3" s="6"/>
       <c r="J3" s="6"/>
@@ -2418,10 +2449,12 @@
       <c r="E4" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="F4" s="39" t="s">
+      <c r="F4" s="37" t="s">
         <v>39</v>
       </c>
-      <c r="G4" s="12"/>
+      <c r="G4" s="49" t="s">
+        <v>6</v>
+      </c>
       <c r="H4" s="6"/>
       <c r="I4" s="6"/>
       <c r="J4" s="6"/>
@@ -2454,32 +2487,34 @@
       <c r="E5" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="F5" s="39" t="s">
+      <c r="F5" s="37" t="s">
         <v>37</v>
       </c>
-      <c r="G5" s="17"/>
-      <c r="H5" s="18"/>
-      <c r="I5" s="18"/>
-      <c r="J5" s="18"/>
-      <c r="K5" s="18"/>
-      <c r="L5" s="18"/>
-      <c r="M5" s="18"/>
-      <c r="N5" s="18"/>
-      <c r="O5" s="18"/>
-      <c r="P5" s="18"/>
-      <c r="Q5" s="18"/>
-      <c r="R5" s="18"/>
-      <c r="S5" s="18"/>
-      <c r="T5" s="18"/>
-      <c r="U5" s="18"/>
-      <c r="V5" s="18"/>
-      <c r="W5" s="18"/>
-      <c r="X5" s="18"/>
-      <c r="Y5" s="18"/>
-      <c r="Z5" s="18"/>
+      <c r="G5" s="50" t="s">
+        <v>6</v>
+      </c>
+      <c r="H5" s="17"/>
+      <c r="I5" s="17"/>
+      <c r="J5" s="17"/>
+      <c r="K5" s="17"/>
+      <c r="L5" s="17"/>
+      <c r="M5" s="17"/>
+      <c r="N5" s="17"/>
+      <c r="O5" s="17"/>
+      <c r="P5" s="17"/>
+      <c r="Q5" s="17"/>
+      <c r="R5" s="17"/>
+      <c r="S5" s="17"/>
+      <c r="T5" s="17"/>
+      <c r="U5" s="17"/>
+      <c r="V5" s="17"/>
+      <c r="W5" s="17"/>
+      <c r="X5" s="17"/>
+      <c r="Y5" s="17"/>
+      <c r="Z5" s="17"/>
     </row>
     <row r="6" spans="1:256" ht="153.75" customHeight="1">
-      <c r="A6" s="19"/>
+      <c r="A6" s="18"/>
       <c r="B6" s="13">
         <v>4</v>
       </c>
@@ -2493,29 +2528,31 @@
       <c r="F6" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="G6" s="20"/>
-      <c r="H6" s="21"/>
-      <c r="I6" s="20"/>
-      <c r="J6" s="21"/>
-      <c r="K6" s="20"/>
-      <c r="L6" s="21"/>
-      <c r="M6" s="20"/>
-      <c r="N6" s="21"/>
-      <c r="O6" s="20"/>
-      <c r="P6" s="21"/>
-      <c r="Q6" s="21"/>
-      <c r="R6" s="21"/>
-      <c r="S6" s="21"/>
-      <c r="T6" s="22"/>
-      <c r="U6" s="21"/>
-      <c r="V6" s="23"/>
-      <c r="W6" s="23"/>
-      <c r="X6" s="23"/>
-      <c r="Y6" s="23"/>
-      <c r="Z6" s="23"/>
+      <c r="G6" s="51" t="s">
+        <v>6</v>
+      </c>
+      <c r="H6" s="20"/>
+      <c r="I6" s="19"/>
+      <c r="J6" s="20"/>
+      <c r="K6" s="19"/>
+      <c r="L6" s="20"/>
+      <c r="M6" s="19"/>
+      <c r="N6" s="20"/>
+      <c r="O6" s="19"/>
+      <c r="P6" s="20"/>
+      <c r="Q6" s="20"/>
+      <c r="R6" s="20"/>
+      <c r="S6" s="20"/>
+      <c r="T6" s="21"/>
+      <c r="U6" s="20"/>
+      <c r="V6" s="22"/>
+      <c r="W6" s="22"/>
+      <c r="X6" s="22"/>
+      <c r="Y6" s="22"/>
+      <c r="Z6" s="22"/>
     </row>
     <row r="7" spans="1:256" ht="171.75" customHeight="1">
-      <c r="A7" s="24"/>
+      <c r="A7" s="23"/>
       <c r="B7" s="13">
         <v>5</v>
       </c>
@@ -2526,46 +2563,50 @@
       <c r="E7" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="F7" s="39" t="s">
+      <c r="F7" s="37" t="s">
         <v>40</v>
       </c>
-      <c r="G7" s="25"/>
-      <c r="H7" s="26"/>
-      <c r="I7" s="26"/>
-      <c r="J7" s="26"/>
-      <c r="K7" s="26"/>
-      <c r="L7" s="26"/>
-      <c r="M7" s="26"/>
-      <c r="N7" s="26"/>
-      <c r="O7" s="26"/>
-      <c r="P7" s="26"/>
-      <c r="Q7" s="26"/>
-      <c r="R7" s="26"/>
-      <c r="S7" s="26"/>
-      <c r="T7" s="26"/>
-      <c r="U7" s="26"/>
-      <c r="V7" s="26"/>
-      <c r="W7" s="26"/>
-      <c r="X7" s="26"/>
-      <c r="Y7" s="26"/>
-      <c r="Z7" s="26"/>
+      <c r="G7" s="52" t="s">
+        <v>6</v>
+      </c>
+      <c r="H7" s="24"/>
+      <c r="I7" s="24"/>
+      <c r="J7" s="24"/>
+      <c r="K7" s="24"/>
+      <c r="L7" s="24"/>
+      <c r="M7" s="24"/>
+      <c r="N7" s="24"/>
+      <c r="O7" s="24"/>
+      <c r="P7" s="24"/>
+      <c r="Q7" s="24"/>
+      <c r="R7" s="24"/>
+      <c r="S7" s="24"/>
+      <c r="T7" s="24"/>
+      <c r="U7" s="24"/>
+      <c r="V7" s="24"/>
+      <c r="W7" s="24"/>
+      <c r="X7" s="24"/>
+      <c r="Y7" s="24"/>
+      <c r="Z7" s="24"/>
     </row>
     <row r="8" spans="1:256" ht="149.25" customHeight="1">
       <c r="A8" s="10"/>
       <c r="B8" s="13">
         <v>6</v>
       </c>
-      <c r="C8" s="27"/>
+      <c r="C8" s="25"/>
       <c r="D8" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="E8" s="39" t="s">
+      <c r="E8" s="37" t="s">
         <v>59</v>
       </c>
-      <c r="F8" s="39" t="s">
+      <c r="F8" s="37" t="s">
         <v>41</v>
       </c>
-      <c r="G8" s="12"/>
+      <c r="G8" s="49" t="s">
+        <v>6</v>
+      </c>
       <c r="H8" s="6"/>
       <c r="I8" s="6"/>
       <c r="J8" s="6"/>
@@ -2592,16 +2633,18 @@
         <v>7</v>
       </c>
       <c r="C9" s="16"/>
-      <c r="D9" s="39" t="s">
+      <c r="D9" s="37" t="s">
         <v>28</v>
       </c>
-      <c r="E9" s="39" t="s">
+      <c r="E9" s="37" t="s">
         <v>60</v>
       </c>
-      <c r="F9" s="39" t="s">
+      <c r="F9" s="37" t="s">
         <v>42</v>
       </c>
-      <c r="G9" s="12"/>
+      <c r="G9" s="49" t="s">
+        <v>6</v>
+      </c>
       <c r="H9" s="6"/>
       <c r="I9" s="6"/>
       <c r="J9" s="6"/>
@@ -2628,16 +2671,18 @@
         <v>8</v>
       </c>
       <c r="C10" s="16"/>
-      <c r="D10" s="39" t="s">
+      <c r="D10" s="37" t="s">
         <v>29</v>
       </c>
-      <c r="E10" s="39" t="s">
+      <c r="E10" s="37" t="s">
         <v>61</v>
       </c>
-      <c r="F10" s="39" t="s">
+      <c r="F10" s="37" t="s">
         <v>38</v>
       </c>
-      <c r="G10" s="12"/>
+      <c r="G10" s="49" t="s">
+        <v>6</v>
+      </c>
       <c r="H10" s="6"/>
       <c r="I10" s="6"/>
       <c r="J10" s="6"/>
@@ -2664,16 +2709,18 @@
         <v>9</v>
       </c>
       <c r="C11" s="16"/>
-      <c r="D11" s="39" t="s">
+      <c r="D11" s="37" t="s">
         <v>30</v>
       </c>
-      <c r="E11" s="39" t="s">
+      <c r="E11" s="37" t="s">
         <v>62</v>
       </c>
-      <c r="F11" s="39" t="s">
+      <c r="F11" s="37" t="s">
         <v>31</v>
       </c>
-      <c r="G11" s="12"/>
+      <c r="G11" s="49" t="s">
+        <v>6</v>
+      </c>
       <c r="H11" s="6"/>
       <c r="I11" s="6"/>
       <c r="J11" s="6"/>
@@ -2700,16 +2747,18 @@
         <v>10</v>
       </c>
       <c r="C12" s="16"/>
-      <c r="D12" s="39" t="s">
+      <c r="D12" s="37" t="s">
         <v>32</v>
       </c>
-      <c r="E12" s="39" t="s">
+      <c r="E12" s="37" t="s">
         <v>33</v>
       </c>
-      <c r="F12" s="39" t="s">
+      <c r="F12" s="37" t="s">
         <v>34</v>
       </c>
-      <c r="G12" s="12"/>
+      <c r="G12" s="49" t="s">
+        <v>6</v>
+      </c>
       <c r="H12" s="6"/>
       <c r="I12" s="6"/>
       <c r="J12" s="6"/>
@@ -2735,19 +2784,21 @@
       <c r="B13" s="13">
         <v>11</v>
       </c>
-      <c r="C13" s="41" t="s">
+      <c r="C13" s="39" t="s">
         <v>35</v>
       </c>
-      <c r="D13" s="39" t="s">
+      <c r="D13" s="37" t="s">
         <v>36</v>
       </c>
-      <c r="E13" s="39" t="s">
+      <c r="E13" s="37" t="s">
         <v>63</v>
       </c>
-      <c r="F13" s="39" t="s">
+      <c r="F13" s="37" t="s">
         <v>44</v>
       </c>
-      <c r="G13" s="12"/>
+      <c r="G13" s="49" t="s">
+        <v>6</v>
+      </c>
       <c r="H13" s="6"/>
       <c r="I13" s="6"/>
       <c r="J13" s="6"/>
@@ -2768,22 +2819,24 @@
       <c r="Y13" s="6"/>
       <c r="Z13" s="6"/>
     </row>
-    <row r="14" spans="1:256" s="40" customFormat="1" ht="124.5" customHeight="1">
+    <row r="14" spans="1:256" s="38" customFormat="1" ht="124.5" customHeight="1">
       <c r="A14" s="10"/>
       <c r="B14" s="13">
         <v>12</v>
       </c>
-      <c r="C14" s="41"/>
-      <c r="D14" s="39" t="s">
+      <c r="C14" s="39"/>
+      <c r="D14" s="37" t="s">
         <v>47</v>
       </c>
-      <c r="E14" s="39" t="s">
+      <c r="E14" s="37" t="s">
         <v>64</v>
       </c>
-      <c r="F14" s="39" t="s">
+      <c r="F14" s="37" t="s">
         <v>48</v>
       </c>
-      <c r="G14" s="12"/>
+      <c r="G14" s="49" t="s">
+        <v>6</v>
+      </c>
       <c r="H14" s="6"/>
       <c r="I14" s="6"/>
       <c r="J14" s="6"/>
@@ -3040,16 +3093,18 @@
         <v>13</v>
       </c>
       <c r="C15" s="16"/>
-      <c r="D15" s="39" t="s">
+      <c r="D15" s="37" t="s">
         <v>43</v>
       </c>
-      <c r="E15" s="39" t="s">
+      <c r="E15" s="37" t="s">
         <v>65</v>
       </c>
-      <c r="F15" s="39" t="s">
+      <c r="F15" s="37" t="s">
         <v>45</v>
       </c>
-      <c r="G15" s="12"/>
+      <c r="G15" s="49" t="s">
+        <v>6</v>
+      </c>
       <c r="H15" s="6"/>
       <c r="I15" s="6"/>
       <c r="J15" s="6"/>
@@ -3076,16 +3131,18 @@
         <v>14</v>
       </c>
       <c r="C16" s="16"/>
-      <c r="D16" s="39" t="s">
+      <c r="D16" s="37" t="s">
         <v>46</v>
       </c>
-      <c r="E16" s="39" t="s">
+      <c r="E16" s="37" t="s">
         <v>66</v>
       </c>
-      <c r="F16" s="39" t="s">
+      <c r="F16" s="37" t="s">
         <v>49</v>
       </c>
-      <c r="G16" s="12"/>
+      <c r="G16" s="49" t="s">
+        <v>6</v>
+      </c>
       <c r="H16" s="6"/>
       <c r="I16" s="6"/>
       <c r="J16" s="6"/>
@@ -3121,7 +3178,9 @@
       <c r="F17" s="16" t="s">
         <v>52</v>
       </c>
-      <c r="G17" s="12"/>
+      <c r="G17" s="49" t="s">
+        <v>6</v>
+      </c>
       <c r="H17" s="6"/>
       <c r="I17" s="6"/>
       <c r="J17" s="6"/>
@@ -3157,7 +3216,9 @@
       <c r="F18" s="16" t="s">
         <v>54</v>
       </c>
-      <c r="G18" s="12"/>
+      <c r="G18" s="49" t="s">
+        <v>6</v>
+      </c>
       <c r="H18" s="6"/>
       <c r="I18" s="6"/>
       <c r="J18" s="6"/>
@@ -3193,7 +3254,9 @@
       <c r="F19" s="16" t="s">
         <v>55</v>
       </c>
-      <c r="G19" s="12"/>
+      <c r="G19" s="49" t="s">
+        <v>6</v>
+      </c>
       <c r="H19" s="6"/>
       <c r="I19" s="6"/>
       <c r="J19" s="6"/>
@@ -3726,13 +3789,13 @@
     </row>
     <row r="37" spans="1:26" ht="15" customHeight="1">
       <c r="A37" s="10"/>
-      <c r="B37" s="28">
+      <c r="B37" s="26">
         <v>35</v>
       </c>
-      <c r="C37" s="29"/>
-      <c r="D37" s="29"/>
-      <c r="E37" s="29"/>
-      <c r="F37" s="29"/>
+      <c r="C37" s="27"/>
+      <c r="D37" s="27"/>
+      <c r="E37" s="27"/>
+      <c r="F37" s="27"/>
       <c r="G37" s="12"/>
       <c r="H37" s="6"/>
       <c r="I37" s="6"/>
@@ -3755,18 +3818,18 @@
       <c r="Z37" s="6"/>
     </row>
     <row r="38" spans="1:26" ht="15.95" customHeight="1">
-      <c r="A38" s="30"/>
-      <c r="B38" s="31"/>
-      <c r="C38" s="31"/>
-      <c r="D38" s="32" t="s">
+      <c r="A38" s="28"/>
+      <c r="B38" s="29"/>
+      <c r="C38" s="29"/>
+      <c r="D38" s="30" t="s">
         <v>15</v>
       </c>
-      <c r="E38" s="31">
+      <c r="E38" s="29">
         <f>COUNT(#REF!)</f>
         <v>0</v>
       </c>
-      <c r="F38" s="31"/>
-      <c r="G38" s="33"/>
+      <c r="F38" s="29"/>
+      <c r="G38" s="31"/>
       <c r="H38" s="6"/>
       <c r="I38" s="6"/>
       <c r="J38" s="6"/>
@@ -3788,18 +3851,18 @@
       <c r="Z38" s="6"/>
     </row>
     <row r="39" spans="1:26" ht="15.95" customHeight="1">
-      <c r="A39" s="30"/>
-      <c r="B39" s="31"/>
-      <c r="C39" s="31"/>
-      <c r="D39" s="32" t="s">
+      <c r="A39" s="28"/>
+      <c r="B39" s="29"/>
+      <c r="C39" s="29"/>
+      <c r="D39" s="30" t="s">
         <v>16</v>
       </c>
-      <c r="E39" s="34">
+      <c r="E39" s="32">
         <f>COUNTA(D3:D37)</f>
         <v>17</v>
       </c>
-      <c r="F39" s="31"/>
-      <c r="G39" s="33"/>
+      <c r="F39" s="29"/>
+      <c r="G39" s="31"/>
       <c r="H39" s="6"/>
       <c r="I39" s="6"/>
       <c r="J39" s="6"/>
@@ -3821,18 +3884,18 @@
       <c r="Z39" s="6"/>
     </row>
     <row r="40" spans="1:26" ht="15.95" customHeight="1">
-      <c r="A40" s="30"/>
-      <c r="B40" s="31"/>
-      <c r="C40" s="31"/>
-      <c r="D40" s="32" t="s">
+      <c r="A40" s="28"/>
+      <c r="B40" s="29"/>
+      <c r="C40" s="29"/>
+      <c r="D40" s="30" t="s">
         <v>17</v>
       </c>
-      <c r="E40" s="31">
+      <c r="E40" s="29">
         <f>COUNT(#REF!)</f>
         <v>0</v>
       </c>
-      <c r="F40" s="31"/>
-      <c r="G40" s="33"/>
+      <c r="F40" s="29"/>
+      <c r="G40" s="31"/>
       <c r="H40" s="6"/>
       <c r="I40" s="6"/>
       <c r="J40" s="6"/>
@@ -3854,12 +3917,12 @@
       <c r="Z40" s="6"/>
     </row>
     <row r="41" spans="1:26" ht="15" customHeight="1">
-      <c r="A41" s="35"/>
-      <c r="B41" s="36"/>
-      <c r="C41" s="36"/>
-      <c r="D41" s="36"/>
-      <c r="E41" s="36"/>
-      <c r="F41" s="36"/>
+      <c r="A41" s="33"/>
+      <c r="B41" s="34"/>
+      <c r="C41" s="34"/>
+      <c r="D41" s="34"/>
+      <c r="E41" s="34"/>
+      <c r="F41" s="34"/>
       <c r="G41" s="6"/>
       <c r="H41" s="6"/>
       <c r="I41" s="6"/>
@@ -3883,11 +3946,11 @@
     </row>
     <row r="42" spans="1:26" ht="14.25" customHeight="1">
       <c r="A42" s="6"/>
-      <c r="B42" s="37"/>
-      <c r="C42" s="37"/>
-      <c r="D42" s="37"/>
-      <c r="E42" s="37"/>
-      <c r="F42" s="37"/>
+      <c r="B42" s="35"/>
+      <c r="C42" s="35"/>
+      <c r="D42" s="35"/>
+      <c r="E42" s="35"/>
+      <c r="F42" s="35"/>
       <c r="G42" s="6"/>
       <c r="H42" s="6"/>
       <c r="I42" s="6"/>
@@ -3910,12 +3973,12 @@
       <c r="Z42" s="6"/>
     </row>
     <row r="43" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A43" s="38"/>
-      <c r="B43" s="37"/>
-      <c r="C43" s="37"/>
-      <c r="D43" s="37"/>
-      <c r="E43" s="37"/>
-      <c r="F43" s="37"/>
+      <c r="A43" s="36"/>
+      <c r="B43" s="35"/>
+      <c r="C43" s="35"/>
+      <c r="D43" s="35"/>
+      <c r="E43" s="35"/>
+      <c r="F43" s="35"/>
       <c r="G43" s="6"/>
       <c r="H43" s="6"/>
       <c r="I43" s="6"/>
@@ -3938,12 +4001,12 @@
       <c r="Z43" s="6"/>
     </row>
     <row r="44" spans="1:26" ht="15" customHeight="1">
-      <c r="A44" s="38"/>
-      <c r="B44" s="37"/>
-      <c r="C44" s="37"/>
-      <c r="D44" s="37"/>
-      <c r="E44" s="37"/>
-      <c r="F44" s="37"/>
+      <c r="A44" s="36"/>
+      <c r="B44" s="35"/>
+      <c r="C44" s="35"/>
+      <c r="D44" s="35"/>
+      <c r="E44" s="35"/>
+      <c r="F44" s="35"/>
       <c r="G44" s="6"/>
       <c r="H44" s="6"/>
       <c r="I44" s="6"/>
@@ -3966,12 +4029,12 @@
       <c r="Z44" s="6"/>
     </row>
     <row r="45" spans="1:26" ht="15" customHeight="1">
-      <c r="A45" s="38"/>
-      <c r="B45" s="37"/>
-      <c r="C45" s="37"/>
-      <c r="D45" s="37"/>
-      <c r="E45" s="37"/>
-      <c r="F45" s="37"/>
+      <c r="A45" s="36"/>
+      <c r="B45" s="35"/>
+      <c r="C45" s="35"/>
+      <c r="D45" s="35"/>
+      <c r="E45" s="35"/>
+      <c r="F45" s="35"/>
       <c r="G45" s="6"/>
       <c r="H45" s="6"/>
       <c r="I45" s="6"/>
@@ -3994,12 +4057,12 @@
       <c r="Z45" s="6"/>
     </row>
     <row r="46" spans="1:26" ht="15" customHeight="1">
-      <c r="A46" s="38"/>
-      <c r="B46" s="37"/>
-      <c r="C46" s="37"/>
-      <c r="D46" s="37"/>
-      <c r="E46" s="37"/>
-      <c r="F46" s="37"/>
+      <c r="A46" s="36"/>
+      <c r="B46" s="35"/>
+      <c r="C46" s="35"/>
+      <c r="D46" s="35"/>
+      <c r="E46" s="35"/>
+      <c r="F46" s="35"/>
       <c r="G46" s="6"/>
       <c r="H46" s="6"/>
       <c r="I46" s="6"/>
@@ -4022,12 +4085,12 @@
       <c r="Z46" s="6"/>
     </row>
     <row r="47" spans="1:26" ht="15" customHeight="1">
-      <c r="A47" s="38"/>
-      <c r="B47" s="37"/>
-      <c r="C47" s="37"/>
-      <c r="D47" s="37"/>
-      <c r="E47" s="37"/>
-      <c r="F47" s="37"/>
+      <c r="A47" s="36"/>
+      <c r="B47" s="35"/>
+      <c r="C47" s="35"/>
+      <c r="D47" s="35"/>
+      <c r="E47" s="35"/>
+      <c r="F47" s="35"/>
       <c r="G47" s="6"/>
       <c r="H47" s="6"/>
       <c r="I47" s="6"/>
@@ -4050,12 +4113,12 @@
       <c r="Z47" s="6"/>
     </row>
     <row r="48" spans="1:26" ht="15" customHeight="1">
-      <c r="A48" s="38"/>
-      <c r="B48" s="37"/>
-      <c r="C48" s="37"/>
-      <c r="D48" s="37"/>
-      <c r="E48" s="37"/>
-      <c r="F48" s="37"/>
+      <c r="A48" s="36"/>
+      <c r="B48" s="35"/>
+      <c r="C48" s="35"/>
+      <c r="D48" s="35"/>
+      <c r="E48" s="35"/>
+      <c r="F48" s="35"/>
       <c r="G48" s="6"/>
       <c r="H48" s="6"/>
       <c r="I48" s="6"/>
@@ -4078,12 +4141,12 @@
       <c r="Z48" s="6"/>
     </row>
     <row r="49" spans="1:26" ht="15" customHeight="1">
-      <c r="A49" s="38"/>
-      <c r="B49" s="37"/>
-      <c r="C49" s="37"/>
-      <c r="D49" s="37"/>
-      <c r="E49" s="37"/>
-      <c r="F49" s="37"/>
+      <c r="A49" s="36"/>
+      <c r="B49" s="35"/>
+      <c r="C49" s="35"/>
+      <c r="D49" s="35"/>
+      <c r="E49" s="35"/>
+      <c r="F49" s="35"/>
       <c r="G49" s="6"/>
       <c r="H49" s="6"/>
       <c r="I49" s="6"/>
@@ -4106,12 +4169,12 @@
       <c r="Z49" s="6"/>
     </row>
     <row r="50" spans="1:26" ht="15" customHeight="1">
-      <c r="A50" s="38"/>
-      <c r="B50" s="37"/>
-      <c r="C50" s="37"/>
-      <c r="D50" s="37"/>
-      <c r="E50" s="37"/>
-      <c r="F50" s="37"/>
+      <c r="A50" s="36"/>
+      <c r="B50" s="35"/>
+      <c r="C50" s="35"/>
+      <c r="D50" s="35"/>
+      <c r="E50" s="35"/>
+      <c r="F50" s="35"/>
       <c r="G50" s="6"/>
       <c r="H50" s="6"/>
       <c r="I50" s="6"/>
